--- a/JupyterNotebooks/AveragedIntensites/GossA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossA-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.9969533164325624</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.038396101144211</v>
+      </c>
+      <c r="D16">
+        <v>0.9568473323611687</v>
+      </c>
+      <c r="E16">
+        <v>0.9990556871472746</v>
+      </c>
+      <c r="F16">
+        <v>0.9826358984138658</v>
+      </c>
+      <c r="G16">
+        <v>1.038396101144211</v>
+      </c>
+      <c r="H16">
+        <v>0.9568473323611687</v>
+      </c>
+      <c r="I16">
+        <v>1.007458715600644</v>
+      </c>
+      <c r="J16">
+        <v>0.9807765785170033</v>
+      </c>
+      <c r="K16">
+        <v>1.009811656777114</v>
+      </c>
+      <c r="L16">
+        <v>0.9676101139399597</v>
+      </c>
+      <c r="M16">
+        <v>1.038396101144211</v>
+      </c>
+      <c r="N16">
+        <v>0.9779515097542216</v>
+      </c>
+      <c r="O16">
+        <v>0.99423375476663</v>
+      </c>
+      <c r="P16">
+        <v>0.9928240104876551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.038396101144211</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8900959999999988</v>
+        <v>1.038396101144211</v>
       </c>
       <c r="D10">
-        <v>1.070868</v>
+        <v>0.9568473323611687</v>
       </c>
       <c r="E10">
-        <v>1.007764000000001</v>
+        <v>0.9990556871472746</v>
       </c>
       <c r="F10">
-        <v>1.008500000000001</v>
+        <v>0.9826358984138658</v>
       </c>
       <c r="G10">
-        <v>0.8900959999999988</v>
+        <v>1.038396101144211</v>
       </c>
       <c r="H10">
-        <v>1.070868</v>
+        <v>0.9568473323611687</v>
       </c>
       <c r="I10">
-        <v>0.968823999999999</v>
+        <v>1.007458715600644</v>
       </c>
       <c r="J10">
-        <v>1.031648</v>
+        <v>0.9807765785170033</v>
       </c>
       <c r="K10">
-        <v>0.9579519999999989</v>
+        <v>1.009811656777114</v>
       </c>
       <c r="L10">
-        <v>1.055508000000002</v>
+        <v>0.9676101139399597</v>
       </c>
       <c r="M10">
-        <v>0.8900959999999988</v>
+        <v>1.038396101144211</v>
       </c>
       <c r="N10">
-        <v>1.039316000000001</v>
+        <v>0.9779515097542216</v>
       </c>
       <c r="O10">
-        <v>0.9943070000000001</v>
+        <v>0.99423375476663</v>
       </c>
       <c r="P10">
-        <v>0.9988949999999999</v>
+        <v>0.9928240104876551</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.05</v>
+        <v>0.7736688538060419</v>
       </c>
       <c r="D11">
-        <v>0.76</v>
+        <v>1.303916321476776</v>
       </c>
       <c r="E11">
-        <v>1.11</v>
+        <v>0.9307027969858641</v>
       </c>
       <c r="F11">
-        <v>0.9399999999999999</v>
+        <v>1.059554205819293</v>
       </c>
       <c r="G11">
-        <v>1.05</v>
+        <v>0.7736688538060419</v>
       </c>
       <c r="H11">
-        <v>0.76</v>
+        <v>1.303916321476776</v>
       </c>
       <c r="I11">
-        <v>1.090275000000001</v>
+        <v>0.8801929826685201</v>
       </c>
       <c r="J11">
-        <v>0.9902750000000007</v>
+        <v>1.063820884710824</v>
       </c>
       <c r="K11">
-        <v>1.023325000000002</v>
+        <v>0.913226274997322</v>
       </c>
       <c r="L11">
-        <v>0.86</v>
+        <v>1.196573539604364</v>
       </c>
       <c r="M11">
-        <v>1.05</v>
+        <v>0.7736688538060419</v>
       </c>
       <c r="N11">
-        <v>0.9350000000000001</v>
+        <v>1.11730955923132</v>
       </c>
       <c r="O11">
-        <v>0.965</v>
+        <v>1.016960544521994</v>
       </c>
       <c r="P11">
-        <v>0.9779843750000003</v>
+        <v>1.015206982508626</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.0278922395648</v>
+        <v>0.7729313415068712</v>
       </c>
       <c r="D12">
-        <v>0.858053076377601</v>
+        <v>1.305311981312687</v>
       </c>
       <c r="E12">
-        <v>1.062348833792</v>
+        <v>0.9302468709536855</v>
       </c>
       <c r="F12">
-        <v>0.9638578003967997</v>
+        <v>1.059863588466121</v>
       </c>
       <c r="G12">
-        <v>1.0278922395648</v>
+        <v>0.7729313415068712</v>
       </c>
       <c r="H12">
-        <v>0.858053076377601</v>
+        <v>1.305311981312687</v>
       </c>
       <c r="I12">
-        <v>1.049966137651204</v>
+        <v>0.8795977688326166</v>
       </c>
       <c r="J12">
-        <v>0.9917127975935957</v>
+        <v>1.063991938556708</v>
       </c>
       <c r="K12">
-        <v>1.011931220582399</v>
+        <v>0.912915563974888</v>
       </c>
       <c r="L12">
-        <v>0.9166614028288017</v>
+        <v>1.197517652890035</v>
       </c>
       <c r="M12">
-        <v>1.0278853937152</v>
+        <v>0.7729313415068712</v>
       </c>
       <c r="N12">
-        <v>0.9602009550848005</v>
+        <v>1.117779426133187</v>
       </c>
       <c r="O12">
-        <v>0.9780379875328002</v>
+        <v>1.017088445559841</v>
       </c>
       <c r="P12">
-        <v>0.9853029385984001</v>
+        <v>1.015297088311702</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9954841681819239</v>
+        <v>0.7735119461771636</v>
       </c>
       <c r="D13">
-        <v>0.9953554290253483</v>
+        <v>1.304129990706679</v>
       </c>
       <c r="E13">
-        <v>0.9954954706970016</v>
+        <v>0.9306547013103774</v>
       </c>
       <c r="F13">
-        <v>0.9952061284355199</v>
+        <v>1.059609727862718</v>
       </c>
       <c r="G13">
-        <v>0.9954841681819239</v>
+        <v>0.7735119461771636</v>
       </c>
       <c r="H13">
-        <v>0.9953554290253483</v>
+        <v>1.304129990706679</v>
       </c>
       <c r="I13">
-        <v>0.9950151526434676</v>
+        <v>0.880057968614301</v>
       </c>
       <c r="J13">
-        <v>0.9955998503151698</v>
+        <v>1.063856850715124</v>
       </c>
       <c r="K13">
-        <v>0.9954307713243284</v>
+        <v>0.9131621906631909</v>
       </c>
       <c r="L13">
-        <v>0.9946634052486915</v>
+        <v>1.196764343698158</v>
       </c>
       <c r="M13">
-        <v>0.9954841841841461</v>
+        <v>0.7735119461771636</v>
       </c>
       <c r="N13">
-        <v>0.995425449861175</v>
+        <v>1.117392346008528</v>
       </c>
       <c r="O13">
-        <v>0.9953852990849484</v>
+        <v>1.016976591514235</v>
       </c>
       <c r="P13">
-        <v>0.9952812969839313</v>
+        <v>1.015218464968464</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9928757061572363</v>
+        <v>0.8900959999999988</v>
       </c>
       <c r="D14">
-        <v>1.003742022620346</v>
+        <v>1.070868</v>
       </c>
       <c r="E14">
-        <v>0.9930793142625063</v>
+        <v>1.007764000000001</v>
       </c>
       <c r="F14">
-        <v>0.9960504674779616</v>
+        <v>1.008500000000001</v>
       </c>
       <c r="G14">
-        <v>0.9928757061572363</v>
+        <v>0.8900959999999988</v>
       </c>
       <c r="H14">
-        <v>1.003742022620346</v>
+        <v>1.070868</v>
       </c>
       <c r="I14">
-        <v>0.9909294618623411</v>
+        <v>0.968823999999999</v>
       </c>
       <c r="J14">
-        <v>0.9966408728724448</v>
+        <v>1.031648</v>
       </c>
       <c r="K14">
-        <v>0.9937771487372318</v>
+        <v>0.9579519999999989</v>
       </c>
       <c r="L14">
-        <v>1.00025959523493</v>
+        <v>1.055508000000002</v>
       </c>
       <c r="M14">
-        <v>0.9928757061572363</v>
+        <v>0.8900959999999988</v>
       </c>
       <c r="N14">
-        <v>0.9984106684414262</v>
+        <v>1.039316000000001</v>
       </c>
       <c r="O14">
-        <v>0.9964368776295125</v>
+        <v>0.9943070000000001</v>
       </c>
       <c r="P14">
-        <v>0.9959193236531247</v>
+        <v>0.9988949999999999</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9821302494082897</v>
+        <v>1.05</v>
       </c>
       <c r="D15">
-        <v>1.017094200222554</v>
+        <v>0.76</v>
       </c>
       <c r="E15">
-        <v>0.9899634186265653</v>
+        <v>1.11</v>
       </c>
       <c r="F15">
-        <v>1.000398239037943</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G15">
-        <v>0.9821302494082897</v>
+        <v>1.05</v>
       </c>
       <c r="H15">
-        <v>1.017094200222554</v>
+        <v>0.76</v>
       </c>
       <c r="I15">
-        <v>0.9866616078321203</v>
+        <v>1.090275000000001</v>
       </c>
       <c r="J15">
-        <v>0.9990268959750198</v>
+        <v>0.9902750000000007</v>
       </c>
       <c r="K15">
-        <v>0.9906647134994233</v>
+        <v>1.023325000000002</v>
       </c>
       <c r="L15">
-        <v>1.009687206858583</v>
+        <v>0.86</v>
       </c>
       <c r="M15">
-        <v>0.9821157590462812</v>
+        <v>1.05</v>
       </c>
       <c r="N15">
-        <v>1.00352880942456</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="O15">
-        <v>0.9973965268238381</v>
+        <v>0.965</v>
       </c>
       <c r="P15">
-        <v>0.9969533164325624</v>
+        <v>0.9779843750000003</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.038396101144211</v>
+        <v>1.0278922395648</v>
       </c>
       <c r="D16">
-        <v>0.9568473323611687</v>
+        <v>0.858053076377601</v>
       </c>
       <c r="E16">
-        <v>0.9990556871472746</v>
+        <v>1.062348833792</v>
       </c>
       <c r="F16">
-        <v>0.9826358984138658</v>
+        <v>0.9638578003967997</v>
       </c>
       <c r="G16">
-        <v>1.038396101144211</v>
+        <v>1.0278922395648</v>
       </c>
       <c r="H16">
-        <v>0.9568473323611687</v>
+        <v>0.858053076377601</v>
       </c>
       <c r="I16">
-        <v>1.007458715600644</v>
+        <v>1.049966137651204</v>
       </c>
       <c r="J16">
-        <v>0.9807765785170033</v>
+        <v>0.9917127975935957</v>
       </c>
       <c r="K16">
-        <v>1.009811656777114</v>
+        <v>1.011931220582399</v>
       </c>
       <c r="L16">
-        <v>0.9676101139399597</v>
+        <v>0.9166614028288017</v>
       </c>
       <c r="M16">
-        <v>1.038396101144211</v>
+        <v>1.0278853937152</v>
       </c>
       <c r="N16">
-        <v>0.9779515097542216</v>
+        <v>0.9602009550848005</v>
       </c>
       <c r="O16">
-        <v>0.99423375476663</v>
+        <v>0.9780379875328002</v>
       </c>
       <c r="P16">
-        <v>0.9928240104876551</v>
+        <v>0.9853029385984001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9954841681819239</v>
+      </c>
+      <c r="D17">
+        <v>0.9953554290253483</v>
+      </c>
+      <c r="E17">
+        <v>0.9954954706970016</v>
+      </c>
+      <c r="F17">
+        <v>0.9952061284355199</v>
+      </c>
+      <c r="G17">
+        <v>0.9954841681819239</v>
+      </c>
+      <c r="H17">
+        <v>0.9953554290253483</v>
+      </c>
+      <c r="I17">
+        <v>0.9950151526434676</v>
+      </c>
+      <c r="J17">
+        <v>0.9955998503151698</v>
+      </c>
+      <c r="K17">
+        <v>0.9954307713243284</v>
+      </c>
+      <c r="L17">
+        <v>0.9946634052486915</v>
+      </c>
+      <c r="M17">
+        <v>0.9954841841841461</v>
+      </c>
+      <c r="N17">
+        <v>0.995425449861175</v>
+      </c>
+      <c r="O17">
+        <v>0.9953852990849484</v>
+      </c>
+      <c r="P17">
+        <v>0.9952812969839313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9928757061572363</v>
+      </c>
+      <c r="D18">
+        <v>1.003742022620346</v>
+      </c>
+      <c r="E18">
+        <v>0.9930793142625063</v>
+      </c>
+      <c r="F18">
+        <v>0.9960504674779616</v>
+      </c>
+      <c r="G18">
+        <v>0.9928757061572363</v>
+      </c>
+      <c r="H18">
+        <v>1.003742022620346</v>
+      </c>
+      <c r="I18">
+        <v>0.9909294618623411</v>
+      </c>
+      <c r="J18">
+        <v>0.9966408728724448</v>
+      </c>
+      <c r="K18">
+        <v>0.9937771487372318</v>
+      </c>
+      <c r="L18">
+        <v>1.00025959523493</v>
+      </c>
+      <c r="M18">
+        <v>0.9928757061572363</v>
+      </c>
+      <c r="N18">
+        <v>0.9984106684414262</v>
+      </c>
+      <c r="O18">
+        <v>0.9964368776295125</v>
+      </c>
+      <c r="P18">
+        <v>0.9959193236531247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9821302494082897</v>
+      </c>
+      <c r="D19">
+        <v>1.017094200222554</v>
+      </c>
+      <c r="E19">
+        <v>0.9899634186265653</v>
+      </c>
+      <c r="F19">
+        <v>1.000398239037943</v>
+      </c>
+      <c r="G19">
+        <v>0.9821302494082897</v>
+      </c>
+      <c r="H19">
+        <v>1.017094200222554</v>
+      </c>
+      <c r="I19">
+        <v>0.9866616078321203</v>
+      </c>
+      <c r="J19">
+        <v>0.9990268959750198</v>
+      </c>
+      <c r="K19">
+        <v>0.9906647134994233</v>
+      </c>
+      <c r="L19">
+        <v>1.009687206858583</v>
+      </c>
+      <c r="M19">
+        <v>0.9821157590462812</v>
+      </c>
+      <c r="N19">
+        <v>1.00352880942456</v>
+      </c>
+      <c r="O19">
+        <v>0.9973965268238381</v>
+      </c>
+      <c r="P19">
+        <v>0.9969533164325624</v>
       </c>
     </row>
   </sheetData>
